--- a/beoordeling.xlsx
+++ b/beoordeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jona/School/hz-1.2-pgm2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A193030-A250-E642-B29B-5686037EA30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60233B7-38D2-644D-A45E-CF5662DF513C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25660" yWindow="3260" windowWidth="24980" windowHeight="19920" xr2:uid="{297771A6-4266-694D-B33E-1FD67B4641E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{297771A6-4266-694D-B33E-1FD67B4641E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D5034A-95D4-9E4C-BC38-E500BE2DD0FC}">
   <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W17" zoomScale="143" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView tabSelected="1" topLeftCell="U14" zoomScale="143" workbookViewId="0">
+      <selection activeCell="AA43" sqref="AA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B7" s="30">
         <f>B10+G10+L10+Q10+V10+AA10+AF10</f>
-        <v>653</v>
+        <v>560</v>
       </c>
       <c r="C7" s="30"/>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B8" s="28">
         <f>MIN(B7/70,IF(SMALL((B10,G10,L10,Q10,V10,AA10,AF10),2)&lt;40,5,10))</f>
-        <v>9.3285714285714292</v>
+        <v>8</v>
       </c>
       <c r="C8" s="28"/>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="AA10" s="14">
         <f>AA11+AA12+MAX(AA23,AA34,AA42,AA51)</f>
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AB10" s="14">
         <v>100</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AF10" s="14">
         <f>MAX(AF11,AF21,AF33,AF45)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="14">
         <v>100</v>
@@ -1418,7 +1418,7 @@
         <v>154</v>
       </c>
       <c r="AF11" s="27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="27">
         <v>100</v>
@@ -2145,7 +2145,7 @@
         <v>138</v>
       </c>
       <c r="AA23" s="21">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="21">
         <v>45</v>
@@ -3182,8 +3182,7 @@
         <v>145</v>
       </c>
       <c r="AA42" s="21">
-        <f>SUM(AA43:AA50)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB42" s="21">
         <v>45</v>
